--- a/data/Mar23_fish.xlsx
+++ b/data/Mar23_fish.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkharms/Documents/Teaching/Data Analysis/2022/Labs/BIOWLF680/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4DCCD540-755D-6E47-8155-1F0A4AF5A23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BEE7065-3E56-444F-934F-CBD6179C177A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900"/>
+    <workbookView xWindow="1280" yWindow="760" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mar23_fish" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -933,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3799,7 +3799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
